--- a/st00.docs/html&css정리.20190922.xlsx
+++ b/st00.docs/html&css정리.20190922.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="484">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,9 +758,6 @@
     <t>속성으로 찾으시오</t>
   </si>
   <si>
-    <t>[속성명="속성값"]</t>
-  </si>
-  <si>
     <t>.item</t>
   </si>
   <si>
@@ -783,9 +780,6 @@
   </si>
   <si>
     <t>태그 이름으로 찾으시오</t>
-  </si>
-  <si>
-    <t>태그이름</t>
   </si>
   <si>
     <t>태그선택자</t>
@@ -1368,10 +1362,6 @@
   </si>
   <si>
     <t xml:space="preserve">글자의 기울기 설정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2225,6 +2215,30 @@
       <t>position:fiexed;
 left는 x축의 의미, top은 y축의 의미</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[속성명="속성값"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;-이거 여섯개 암기!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18개 암기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵다. 외울생각하지말고 찾아서 쓰자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2962,26 +2976,41 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2998,25 +3027,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3028,16 +3042,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3888,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3928,7 +3942,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -3946,6 +3960,11 @@
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -3984,16 +4003,16 @@
         <v>111</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
       <c r="B13" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -4001,10 +4020,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -4013,7 +4032,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="165" hidden="1" x14ac:dyDescent="0.3">
@@ -4021,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4032,7 +4051,7 @@
         <v>113</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>104</v>
@@ -4077,7 +4096,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4092,7 +4111,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="102" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>79</v>
@@ -4108,7 +4127,7 @@
         <v>96</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4117,7 +4136,7 @@
         <v>97</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4214,7 +4233,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -4237,7 +4256,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="109" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B4" s="109"/>
       <c r="C4" s="109"/>
@@ -4246,150 +4265,150 @@
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D5" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="79" t="s">
+      <c r="I5" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="J5" s="79" t="s">
         <v>405</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>407</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>408</v>
       </c>
       <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="H6" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>422</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B7" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>420</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4402,11 +4421,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4419,7 +4438,7 @@
     </row>
     <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="108" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B13" s="108"/>
       <c r="C13" s="108"/>
@@ -4443,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D59"/>
+  <dimension ref="A4:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4458,7 +4477,7 @@
     <col min="5" max="16384" width="86.625" style="46"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>135</v>
       </c>
@@ -4472,124 +4491,127 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>202</v>
+        <v>479</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="117" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>191</v>
       </c>
@@ -4603,12 +4625,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>189</v>
@@ -4618,9 +4640,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="87" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>187</v>
@@ -4630,9 +4652,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="114"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>185</v>
@@ -4642,9 +4664,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>183</v>
@@ -4654,64 +4676,64 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="114"/>
-      <c r="B20" s="112" t="s">
-        <v>463</v>
+      <c r="A20" s="115"/>
+      <c r="B20" s="111" t="s">
+        <v>460</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="111" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="112"/>
+      <c r="D21" s="111"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="112" t="s">
-        <v>464</v>
+      <c r="A22" s="115"/>
+      <c r="B22" s="111" t="s">
+        <v>461</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="111" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="114"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="112"/>
+      <c r="D23" s="111"/>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="114"/>
-      <c r="B24" s="112" t="s">
+      <c r="A24" s="115"/>
+      <c r="B24" s="111" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="111" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="111"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="57"/>
@@ -4802,25 +4824,25 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="117"/>
+      <c r="D36" s="113"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="112"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="48" t="s">
         <v>155</v>
       </c>
@@ -4830,7 +4852,7 @@
       <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="48" t="s">
         <v>153</v>
       </c>
@@ -4840,7 +4862,7 @@
       <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="112"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="54" t="s">
         <v>151</v>
       </c>
@@ -4850,43 +4872,43 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="112"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
       <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="112"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="51" t="s">
         <v>149</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="112"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="51" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="48" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="112"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="48" t="s">
         <v>147</v>
       </c>
@@ -4896,7 +4918,7 @@
       <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="112"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="48" t="s">
         <v>145</v>
       </c>
@@ -4906,13 +4928,13 @@
       <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="112"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="51" t="s">
         <v>143</v>
       </c>
@@ -4920,11 +4942,11 @@
         <v>142</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="76" t="s">
         <v>141</v>
       </c>
@@ -4932,11 +4954,11 @@
         <v>140</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="51" t="s">
         <v>139</v>
       </c>
@@ -4946,7 +4968,7 @@
       <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="51" t="s">
         <v>137</v>
       </c>
@@ -4970,7 +4992,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="114" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -4984,43 +5006,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="76" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="76" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D56" s="75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="48" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D57" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
+      <c r="A59" s="116"/>
       <c r="B59" s="48" t="s">
         <v>122</v>
       </c>
@@ -5033,11 +5055,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A36:A51"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -5048,6 +5065,11 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A36:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5059,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5077,330 +5099,332 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>348</v>
+      <c r="A2" s="118" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>345</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="119"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="119"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="119"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="92" t="s">
-        <v>347</v>
-      </c>
       <c r="D7" s="93" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="95" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E8" s="97" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A9" s="119"/>
+      <c r="B9" s="121" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
-      <c r="B9" s="124" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>372</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="124"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="81" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="124"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="85" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="123" t="s">
-        <v>465</v>
+      <c r="A22" s="119"/>
+      <c r="B22" s="122" t="s">
+        <v>462</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="119"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="119"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="60" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="127"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -5413,380 +5437,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="25"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="123" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>306</v>
+      <c r="A28" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>304</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="121" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" s="122" t="s">
-        <v>298</v>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="126" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>296</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="60" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A38" s="124"/>
-      <c r="B38" s="124"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="123" t="s">
-        <v>440</v>
+      <c r="A43" s="121"/>
+      <c r="B43" s="122" t="s">
+        <v>437</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
       <c r="C44" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="124"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="124"/>
-      <c r="B46" s="124"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="124"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="123" t="s">
-        <v>441</v>
+      <c r="A48" s="121"/>
+      <c r="B48" s="122" t="s">
+        <v>438</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="124"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
-      <c r="B52" s="124"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="124"/>
-      <c r="B53" s="123" t="s">
-        <v>428</v>
+      <c r="A53" s="121"/>
+      <c r="B53" s="122" t="s">
+        <v>425</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="124"/>
-      <c r="B54" s="124"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="124"/>
-      <c r="B55" s="124"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
       <c r="C55" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="124"/>
-      <c r="B56" s="123" t="s">
-        <v>429</v>
+      <c r="A56" s="121"/>
+      <c r="B56" s="122" t="s">
+        <v>426</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="124"/>
-      <c r="B57" s="124"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="124"/>
-      <c r="B58" s="124"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="121"/>
       <c r="C58" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5798,150 +5822,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="128" t="s">
-        <v>249</v>
+      <c r="A60" s="118" t="s">
+        <v>247</v>
       </c>
       <c r="B60" s="131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="129"/>
       <c r="B61" s="132"/>
       <c r="C61" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A62" s="126"/>
+      <c r="A62" s="119"/>
       <c r="B62" s="130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" s="86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="126"/>
+      <c r="A63" s="119"/>
       <c r="B63" s="130"/>
       <c r="C63" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="126"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="130"/>
       <c r="C64" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="130"/>
       <c r="C65" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A66" s="126"/>
+      <c r="A66" s="119"/>
       <c r="B66" s="130"/>
       <c r="C66" s="83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D66" s="84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A67" s="126"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="130"/>
       <c r="C67" s="99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D67" s="100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A68" s="126"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="130"/>
       <c r="C68" s="83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D68" s="84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="126"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="130"/>
       <c r="C69" s="83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D69" s="84" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A70" s="127"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="130"/>
       <c r="C70" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5959,144 +5983,137 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="B73" s="125" t="s">
-        <v>224</v>
+      <c r="A73" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="128" t="s">
+        <v>222</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="124"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A75" s="124"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="119"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="E74" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="119"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>447</v>
-      </c>
       <c r="E75" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="119"/>
-      <c r="B76" s="126"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="119"/>
       <c r="C76" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="119"/>
-      <c r="B77" s="126"/>
+      <c r="A77" s="124"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E77" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="124"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A79" s="124"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A80" s="124"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="31" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="119"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="119"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D79" s="32" t="s">
+      <c r="D80" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="E79" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="119"/>
-      <c r="B80" s="126"/>
-      <c r="C80" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>392</v>
-      </c>
       <c r="E80" s="33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="119"/>
-      <c r="B81" s="126"/>
+      <c r="A81" s="124"/>
+      <c r="B81" s="119"/>
       <c r="C81" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="120"/>
-      <c r="B82" s="127"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="120"/>
       <c r="C82" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -6107,6 +6124,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6119,7 +6143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6142,7 +6166,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="101" t="s">
@@ -6153,7 +6177,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="98" t="s">
         <v>20</v>
       </c>
@@ -6162,7 +6186,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="136" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="101" t="s">
@@ -6173,7 +6197,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="134"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="45" t="s">
         <v>26</v>
       </c>
@@ -6182,7 +6206,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="134"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="101" t="s">
         <v>28</v>
       </c>
@@ -6191,7 +6215,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="45" t="s">
         <v>23</v>
       </c>
@@ -6200,7 +6224,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="136" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -6211,7 +6235,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="134"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="101" t="s">
         <v>35</v>
       </c>
@@ -6220,7 +6244,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="45" t="s">
         <v>32</v>
       </c>
@@ -6229,25 +6253,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="133" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="133" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="136"/>
+      <c r="C12" s="134"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="135" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="45" t="s">
@@ -6258,7 +6282,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="45" t="s">
         <v>45</v>
       </c>
@@ -6267,7 +6291,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="133"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="45" t="s">
         <v>47</v>
       </c>
@@ -6276,7 +6300,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="133"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
@@ -6285,7 +6309,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="45" t="s">
         <v>42</v>
       </c>
@@ -6294,7 +6318,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="135" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="45" t="s">
@@ -6305,7 +6329,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="45" t="s">
         <v>43</v>
       </c>
@@ -6314,7 +6338,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="133"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="45" t="s">
         <v>45</v>
       </c>
@@ -6323,7 +6347,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="133"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="45" t="s">
         <v>47</v>
       </c>
@@ -6332,7 +6356,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="45" t="s">
         <v>53</v>
       </c>
@@ -6341,7 +6365,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="135" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -6352,42 +6376,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="133"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="133"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="133"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="135" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="45" t="s">
@@ -6396,35 +6420,35 @@
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="133"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="45" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="133"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="133"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="45" t="s">
         <v>42</v>
       </c>
@@ -6435,14 +6459,14 @@
         <v>63</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="45" t="s">
@@ -6453,7 +6477,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="133"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="45" t="s">
         <v>71</v>
       </c>
@@ -6462,7 +6486,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="133"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="45" t="s">
         <v>72</v>
       </c>
@@ -6472,16 +6496,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190922.xlsx
+++ b/st00.docs/html&css정리.20190922.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="482">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +333,6 @@
   </si>
   <si>
     <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,12 +416,6 @@
   <si>
     <t>시맨택 태그
 (페이지 뼈대 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용도: 다른 태그를 감싼다. &lt;==&gt; 영역을 설정한다.
-사용: 페이지 뼈대 설정하는 데 사용 할 수있다.
-전체 너비 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,6 +744,9 @@
     <t>속성으로 찾으시오</t>
   </si>
   <si>
+    <t>[속성명="속성값"]</t>
+  </si>
+  <si>
     <t>.item</t>
   </si>
   <si>
@@ -780,6 +769,9 @@
   </si>
   <si>
     <t>태그 이름으로 찾으시오</t>
+  </si>
+  <si>
+    <t>태그이름</t>
   </si>
   <si>
     <t>태그선택자</t>
@@ -1362,6 +1354,10 @@
   </si>
   <si>
     <t xml:space="preserve">글자의 기울기 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2218,27 +2214,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[속성명="속성값"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태그이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;-이거 여섯개 암기!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18개 암기!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어렵다. 외울생각하지말고 찾아서 쓰자</t>
+    <t>&lt;img src="../a.png"&gt;
+../ 부모의 폴더
+./ 현재의 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">용도: 다른 태그를 감싼다. &lt;==&gt; 영역을 설정한다.
+사용: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 뼈대 설정하는 데 사용 할 수있다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+전체 너비 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2249,7 +2266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2446,6 +2463,15 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3902,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3915,7 +3941,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
@@ -3925,18 +3951,18 @@
         <v>81</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14"/>
     </row>
@@ -3949,32 +3975,27 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>482</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3985,7 +4006,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3994,13 +4015,13 @@
         <v>77</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="103"/>
       <c r="B12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>446</v>
@@ -4017,7 +4038,7 @@
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="88" t="s">
         <v>452</v>
@@ -4046,15 +4067,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="88" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>104</v>
+      <c r="C17" s="89" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4065,27 +4086,27 @@
         <v>80</v>
       </c>
       <c r="C18" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>116</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="106"/>
       <c r="B20" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4093,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="C21" s="105" t="s">
         <v>392</v>
@@ -4104,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="106"/>
       <c r="G22" s="43"/>
@@ -4117,14 +4138,14 @@
         <v>79</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="103"/>
       <c r="B24" s="14" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="C24" s="37" t="s">
         <v>454</v>
@@ -4133,7 +4154,7 @@
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="104"/>
       <c r="B25" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>455</v>
@@ -4141,58 +4162,58 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="103"/>
       <c r="B27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="103"/>
       <c r="B28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="103"/>
       <c r="B29" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="103"/>
       <c r="B30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="104"/>
       <c r="B31" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
@@ -4462,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E59"/>
+  <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4477,94 +4498,91 @@
     <col min="5" max="16384" width="86.625" style="46"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>203</v>
-      </c>
       <c r="D5" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>348</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>347</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
         <v>424</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>478</v>
+        <v>190</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="117"/>
       <c r="B10" s="117"/>
       <c r="C10" s="111"/>
@@ -4572,9 +4590,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>464</v>
@@ -4583,12 +4601,12 @@
         <v>466</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>465</v>
@@ -4597,46 +4615,46 @@
         <v>467</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>456</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4645,10 +4663,10 @@
         <v>457</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4657,10 +4675,10 @@
         <v>458</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4669,10 +4687,10 @@
         <v>459</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4681,17 +4699,17 @@
         <v>460</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="115"/>
       <c r="B21" s="111"/>
       <c r="C21" s="48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="111"/>
     </row>
@@ -4701,37 +4719,37 @@
         <v>461</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="115"/>
       <c r="B23" s="111"/>
       <c r="C23" s="48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D23" s="111"/>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A24" s="115"/>
       <c r="B24" s="111" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="116"/>
       <c r="B25" s="111"/>
       <c r="C25" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D25" s="111"/>
     </row>
@@ -4749,89 +4767,89 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D36" s="113"/>
     </row>
@@ -4844,30 +4862,30 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="111"/>
       <c r="B38" s="48" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="111"/>
       <c r="B39" s="48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="111"/>
       <c r="B40" s="54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D40" s="50"/>
     </row>
@@ -4880,7 +4898,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="111"/>
       <c r="B42" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>352</v>
@@ -4890,7 +4908,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="111"/>
       <c r="B43" s="51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C43" s="71" t="s">
         <v>353</v>
@@ -4910,20 +4928,20 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="111"/>
       <c r="B45" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="111"/>
       <c r="B46" s="48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="50"/>
     </row>
@@ -4936,10 +4954,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="111"/>
       <c r="B48" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>364</v>
@@ -4948,10 +4966,10 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="111"/>
       <c r="B49" s="76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" s="75" t="s">
         <v>474</v>
@@ -4960,67 +4978,67 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="111"/>
       <c r="B50" s="51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="111"/>
       <c r="B51" s="51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" s="50"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="115"/>
       <c r="B56" s="76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>375</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="115"/>
       <c r="B57" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C57" s="48" t="s">
         <v>376</v>
@@ -5032,25 +5050,25 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="115"/>
       <c r="B58" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="48" t="s">
         <v>377</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="116"/>
       <c r="B59" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5081,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5099,9 +5117,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
-        <v>483</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
@@ -5139,10 +5155,10 @@
       <c r="A4" s="119"/>
       <c r="B4" s="121"/>
       <c r="C4" s="5" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>427</v>
@@ -5152,10 +5168,10 @@
       <c r="A5" s="119"/>
       <c r="B5" s="121"/>
       <c r="C5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>429</v>
@@ -5165,10 +5181,10 @@
       <c r="A6" s="119"/>
       <c r="B6" s="121"/>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -5201,10 +5217,10 @@
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="119"/>
       <c r="B9" s="121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>369</v>
@@ -5234,7 +5250,7 @@
       <c r="A11" s="119"/>
       <c r="B11" s="121"/>
       <c r="C11" s="85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>359</v>
@@ -5249,10 +5265,10 @@
       <c r="A12" s="119"/>
       <c r="B12" s="121"/>
       <c r="C12" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
@@ -5265,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
@@ -5275,10 +5291,10 @@
       <c r="A14" s="119"/>
       <c r="B14" s="121"/>
       <c r="C14" s="85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>358</v>
@@ -5293,7 +5309,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>475</v>
@@ -5305,10 +5321,10 @@
       <c r="A16" s="119"/>
       <c r="B16" s="121"/>
       <c r="C16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
@@ -5318,10 +5334,10 @@
       <c r="A17" s="119"/>
       <c r="B17" s="121"/>
       <c r="C17" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -5329,20 +5345,20 @@
       <c r="A18" s="119"/>
       <c r="B18" s="121"/>
       <c r="C18" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="119"/>
       <c r="B19" s="121"/>
       <c r="C19" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>362</v>
@@ -5353,7 +5369,7 @@
       <c r="A20" s="119"/>
       <c r="B20" s="121"/>
       <c r="C20" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>360</v>
@@ -5370,7 +5386,7 @@
         <v>361</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
@@ -5379,7 +5395,7 @@
         <v>462</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>472</v>
@@ -5392,36 +5408,36 @@
       <c r="A23" s="119"/>
       <c r="B23" s="121"/>
       <c r="C23" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="119"/>
       <c r="B24" s="121"/>
       <c r="C24" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="120"/>
       <c r="B25" s="121"/>
       <c r="C25" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="60" t="s">
         <v>471</v>
@@ -5437,7 +5453,7 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="25"/>
@@ -5445,16 +5461,16 @@
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A28" s="122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>374</v>
@@ -5464,10 +5480,10 @@
       <c r="A29" s="121"/>
       <c r="B29" s="121"/>
       <c r="C29" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>373</v>
@@ -5477,10 +5493,10 @@
       <c r="A30" s="121"/>
       <c r="B30" s="121"/>
       <c r="C30" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>372</v>
@@ -5490,10 +5506,10 @@
       <c r="A31" s="121"/>
       <c r="B31" s="121"/>
       <c r="C31" s="126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D31" s="127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>470</v>
@@ -5512,7 +5528,7 @@
       <c r="A33" s="121"/>
       <c r="B33" s="121"/>
       <c r="C33" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
@@ -5523,7 +5539,7 @@
       <c r="A34" s="121"/>
       <c r="B34" s="121"/>
       <c r="C34" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
@@ -5534,7 +5550,7 @@
       <c r="A35" s="121"/>
       <c r="B35" s="121"/>
       <c r="C35" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
@@ -5545,7 +5561,7 @@
       <c r="A36" s="121"/>
       <c r="B36" s="121"/>
       <c r="C36" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
@@ -5556,10 +5572,10 @@
       <c r="A37" s="121"/>
       <c r="B37" s="121"/>
       <c r="C37" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E37" s="60" t="s">
         <v>469</v>
@@ -5569,31 +5585,31 @@
       <c r="A38" s="121"/>
       <c r="B38" s="121"/>
       <c r="C38" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="121"/>
       <c r="B39" s="121"/>
       <c r="C39" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="121"/>
       <c r="B40" s="121"/>
       <c r="C40" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="5"/>
@@ -5602,23 +5618,23 @@
       <c r="A41" s="121"/>
       <c r="B41" s="121"/>
       <c r="C41" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D41" s="61" t="s">
         <v>436</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="121"/>
       <c r="B42" s="121"/>
       <c r="C42" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -5628,55 +5644,55 @@
         <v>437</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="121"/>
       <c r="B44" s="121"/>
       <c r="C44" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="121"/>
       <c r="B45" s="121"/>
       <c r="C45" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="121"/>
       <c r="B46" s="121"/>
       <c r="C46" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A47" s="121"/>
       <c r="B47" s="121"/>
       <c r="C47" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -5689,7 +5705,7 @@
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5700,7 +5716,7 @@
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5711,7 +5727,7 @@
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5722,18 +5738,18 @@
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A52" s="121"/>
       <c r="B52" s="121"/>
       <c r="C52" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -5742,36 +5758,36 @@
         <v>425</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="121"/>
       <c r="B54" s="121"/>
       <c r="C54" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="121"/>
       <c r="B55" s="121"/>
       <c r="C55" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E55" s="5"/>
     </row>
@@ -5781,36 +5797,36 @@
         <v>426</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="121"/>
       <c r="B57" s="121"/>
       <c r="C57" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="121"/>
       <c r="B58" s="121"/>
       <c r="C58" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5823,19 +5839,19 @@
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
       <c r="A60" s="118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B60" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>439</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -5852,13 +5868,13 @@
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A62" s="119"/>
       <c r="B62" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" s="85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D62" s="86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>463</v>
@@ -5868,36 +5884,36 @@
       <c r="A63" s="119"/>
       <c r="B63" s="130"/>
       <c r="C63" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>380</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="119"/>
       <c r="B64" s="130"/>
       <c r="C64" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A65" s="119"/>
       <c r="B65" s="130"/>
       <c r="C65" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>382</v>
@@ -5907,23 +5923,23 @@
       <c r="A66" s="119"/>
       <c r="B66" s="130"/>
       <c r="C66" s="83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D66" s="84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A67" s="119"/>
       <c r="B67" s="130"/>
       <c r="C67" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" s="100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>384</v>
@@ -5933,20 +5949,20 @@
       <c r="A68" s="119"/>
       <c r="B68" s="130"/>
       <c r="C68" s="83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="119"/>
       <c r="B69" s="130"/>
       <c r="C69" s="83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D69" s="84" t="s">
         <v>381</v>
@@ -5962,7 +5978,7 @@
         <v>378</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>379</v>
@@ -5984,16 +6000,16 @@
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A73" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B73" s="128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>442</v>
@@ -6003,7 +6019,7 @@
       <c r="A74" s="124"/>
       <c r="B74" s="119"/>
       <c r="C74" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="32" t="s">
         <v>443</v>
@@ -6016,7 +6032,7 @@
       <c r="A75" s="124"/>
       <c r="B75" s="119"/>
       <c r="C75" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>444</v>
@@ -6029,10 +6045,10 @@
       <c r="A76" s="124"/>
       <c r="B76" s="119"/>
       <c r="C76" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>477</v>
@@ -6042,10 +6058,10 @@
       <c r="A77" s="124"/>
       <c r="B77" s="119"/>
       <c r="C77" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>385</v>
@@ -6055,10 +6071,10 @@
       <c r="A78" s="124"/>
       <c r="B78" s="119"/>
       <c r="C78" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E78" s="5"/>
     </row>
@@ -6066,13 +6082,13 @@
       <c r="A79" s="124"/>
       <c r="B79" s="119"/>
       <c r="C79" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>386</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
@@ -6092,10 +6108,10 @@
       <c r="A81" s="124"/>
       <c r="B81" s="119"/>
       <c r="C81" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" s="31"/>
     </row>
@@ -6103,13 +6119,13 @@
       <c r="A82" s="125"/>
       <c r="B82" s="120"/>
       <c r="C82" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +6159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
